--- a/_stuff/validations/effect_size_ttest_v2.xlsx
+++ b/_stuff/validations/effect_size_ttest_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debruine/rproj/scienceverse/papercheck/_stuff/validations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1659F107-2311-C344-B441-CE948D07E598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33854EB8-9D94-AB43-BB28-16715664C1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27680" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="2512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="2515">
   <si>
     <t>text</t>
   </si>
@@ -7639,6 +7639,15 @@
       <t>&gt; PedBE.Md), which was highly correlated with chronological age, r = .89, 95% confidence interval (CI) = [.85, .92], t(308) = 24.70, p &lt; 2.2 × 10 -16 .</t>
     </r>
   </si>
+  <si>
+    <t>not for t</t>
+  </si>
+  <si>
+    <t>unrelated r</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
 </sst>
 </file>
 
@@ -7655,6 +7664,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7720,38 +7730,41 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -8895,10 +8908,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L872"/>
+  <dimension ref="A1:M872"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A722" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8918,7 +8931,7 @@
     <col min="13" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8955,8 +8968,11 @@
       <c r="L1" s="10" t="s">
         <v>2508</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="M1" s="11" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -8988,8 +9004,11 @@
       <c r="K2" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -9021,10 +9040,16 @@
         <v>19</v>
       </c>
       <c r="K3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -9056,10 +9081,16 @@
         <v>23</v>
       </c>
       <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -9091,10 +9122,16 @@
         <v>26</v>
       </c>
       <c r="K5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -9126,10 +9163,16 @@
         <v>29</v>
       </c>
       <c r="K6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -9161,8 +9204,11 @@
       <c r="K7" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -9196,8 +9242,11 @@
       <c r="K8" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -9231,8 +9280,11 @@
       <c r="K9" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -9264,8 +9316,11 @@
       <c r="K10" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -9297,10 +9352,16 @@
         <v>49</v>
       </c>
       <c r="K11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -9332,8 +9393,11 @@
       <c r="K12" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -9368,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -9403,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -9436,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -10254,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
@@ -10359,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
@@ -10598,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="84" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>167</v>
       </c>
@@ -21665,7 +21729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
         <v>1133</v>
       </c>
@@ -21696,7 +21760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
         <v>1136</v>
       </c>
@@ -21727,7 +21791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
         <v>1139</v>
       </c>
@@ -22712,7 +22776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
         <v>1217</v>
       </c>
@@ -23631,7 +23695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A435" s="2" t="s">
         <v>1300</v>
       </c>
@@ -24121,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="210" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:11" ht="168" x14ac:dyDescent="0.15">
       <c r="A449" s="2" t="s">
         <v>1345</v>
       </c>
@@ -24152,7 +24216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A450" s="2" t="s">
         <v>1349</v>
       </c>
@@ -26376,7 +26440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A514" s="2" t="s">
         <v>1541</v>
       </c>
@@ -28031,7 +28095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A563" s="2" t="s">
         <v>1673</v>
       </c>
@@ -30968,7 +31032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A650" s="2" t="s">
         <v>1897</v>
       </c>
@@ -31176,7 +31240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
         <v>1914</v>
       </c>
@@ -31576,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
         <v>1940</v>
       </c>
@@ -35479,7 +35543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A783" s="2" t="s">
         <v>2253</v>
       </c>
@@ -37570,7 +37634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="140" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:11" ht="112" x14ac:dyDescent="0.15">
       <c r="A844" s="2" t="s">
         <v>2424</v>
       </c>
@@ -37605,7 +37669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="112" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:11" ht="84" x14ac:dyDescent="0.15">
       <c r="A845" s="2" t="s">
         <v>2428</v>
       </c>
